--- a/Documents/9.ProjectTestReport.xlsx
+++ b/Documents/9.ProjectTestReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GH\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49069E93-94F9-44F6-A268-7C3533528590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EBF421-C9CE-4705-A0D0-7747E76207B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestReportSprint1" sheetId="1" r:id="rId1"/>
@@ -543,8 +543,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -570,9 +570,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -591,15 +588,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -612,19 +600,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -634,6 +610,11 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -643,11 +624,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1017,6 +993,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1748-47A3-B1D0-9843B959021C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1092,10 +1073,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>302</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,20 +2578,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="27" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="27" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1">
@@ -2702,15 +2683,15 @@
     </row>
     <row r="4" spans="1:27" ht="40.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2794,10 +2775,10 @@
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="5"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2824,7 +2805,7 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2859,7 +2840,7 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="38"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +2848,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2892,15 +2873,15 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>256</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2925,17 +2906,17 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>0</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2960,15 +2941,15 @@
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>0</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2993,11 +2974,11 @@
     </row>
     <row r="13" spans="1:27" ht="16.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>0</v>
       </c>
       <c r="E13" s="5"/>
@@ -3026,11 +3007,11 @@
     </row>
     <row r="14" spans="1:27" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>256</v>
       </c>
       <c r="E14" s="5"/>
@@ -3059,11 +3040,11 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="11">
+      <c r="C15" s="31"/>
+      <c r="D15" s="10">
         <v>256</v>
       </c>
       <c r="E15" s="5"/>
@@ -3092,9 +3073,9 @@
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3121,25 +3102,25 @@
     </row>
     <row r="17" spans="1:27" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I17" s="5"/>
@@ -3164,26 +3145,26 @@
     </row>
     <row r="18" spans="1:27" ht="34.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <v>1</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <f>(30/34)*100%</f>
         <v>0.88235294117647056</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>0</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>1</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="5"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -3204,28 +3185,28 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="33">
+    <row r="19" spans="1:27" ht="33.6">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>1</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="16">
         <f>(28/29)*100%</f>
         <v>0.96551724137931039</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>0</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="11">
         <v>1</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="5"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -3246,28 +3227,28 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="16.5">
+    <row r="20" spans="1:27" ht="33.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <v>1</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <f>(17/22)*100%</f>
         <v>0.77272727272727271</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>2</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="5"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -3288,21 +3269,21 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="33">
+    <row r="21" spans="1:27" ht="33.6">
       <c r="A21" s="1"/>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="16">
         <v>1</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="5"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3323,28 +3304,28 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="33">
+    <row r="22" spans="1:27" ht="33.6">
       <c r="A22" s="1"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="16">
         <v>1</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="16">
         <f>(19/20)*100%</f>
         <v>0.95</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>0</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>2</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="5"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -3367,26 +3348,26 @@
     </row>
     <row r="23" spans="1:27" ht="20.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="16">
         <v>1</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="16">
         <f>(21/24)*100%</f>
         <v>0.875</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>0</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="11">
         <v>2</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="5"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3407,28 +3388,28 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="16.5">
+    <row r="24" spans="1:27" ht="16.8">
       <c r="A24" s="1"/>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="16">
         <v>1</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <f>(9/9)*100%</f>
         <v>1</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>0</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>1</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="5"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -3449,28 +3430,28 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="33">
+    <row r="25" spans="1:27" ht="33.6">
       <c r="A25" s="1"/>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="16">
         <v>1</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <f>(17/17)*100%</f>
         <v>1</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>0</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="11">
         <v>2</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="5"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -3491,28 +3472,28 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="33">
+    <row r="26" spans="1:27" ht="33.6">
       <c r="A26" s="1"/>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="16">
         <v>1</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <f>(22/22)*100%</f>
         <v>1</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>0</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="11">
         <v>2</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="5"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -3535,26 +3516,26 @@
     </row>
     <row r="27" spans="1:27" ht="16.5" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="16">
         <v>1</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <f t="shared" ref="E27:E28" si="0">(17/18)*100%</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>0</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>1</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="5"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -3575,28 +3556,28 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" ht="33">
+    <row r="28" spans="1:27" ht="33.6">
       <c r="A28" s="1"/>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="16">
         <v>1</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <f t="shared" si="0"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>0</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <v>1</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="5"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -3617,28 +3598,28 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" ht="33">
+    <row r="29" spans="1:27" ht="33.6">
       <c r="A29" s="1"/>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="16">
         <v>1</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <f>(13/17)*100%</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>0</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="11">
         <v>2</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="5"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -3659,28 +3640,28 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="33">
+    <row r="30" spans="1:27" ht="33.6">
       <c r="A30" s="1"/>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="16">
         <v>1</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <f>(17/21)</f>
         <v>0.80952380952380953</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>0</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="11">
         <v>2</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="5"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -3701,28 +3682,28 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="33">
+    <row r="31" spans="1:27" ht="33.6">
       <c r="A31" s="1"/>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="16">
         <v>1</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <f>(18/22)</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>0</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <v>1</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="5"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -3745,8 +3726,8 @@
     </row>
     <row r="32" spans="1:27" ht="16.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -3769,11 +3750,11 @@
     </row>
     <row r="33" spans="1:27" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -3798,19 +3779,19 @@
     </row>
     <row r="34" spans="1:27" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="2"/>
@@ -3837,11 +3818,11 @@
     </row>
     <row r="35" spans="1:27" ht="16.5" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -3866,17 +3847,17 @@
     </row>
     <row r="36" spans="1:27" ht="16.5" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <v>0</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3901,17 +3882,17 @@
     </row>
     <row r="37" spans="1:27" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="23" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="12">
         <v>14</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="11">
         <v>2</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="11">
         <v>1</v>
       </c>
       <c r="G37" s="2"/>
@@ -3938,17 +3919,17 @@
     </row>
     <row r="38" spans="1:27" ht="16.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="23" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="12">
         <v>14</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="11">
         <v>2</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="11">
         <v>1</v>
       </c>
       <c r="G38" s="2"/>
@@ -4004,7 +3985,7 @@
     </row>
     <row r="40" spans="1:27" ht="16.5" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="20" t="s">
         <v>55</v>
       </c>
       <c r="G40" s="5"/>
@@ -4127,11 +4108,11 @@
     </row>
     <row r="45" spans="1:27" ht="16.5" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -31897,19 +31878,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="26" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="70.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
@@ -31997,15 +31978,15 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="40.5" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -32086,10 +32067,10 @@
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -32115,14 +32096,14 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="26">
-        <v>302</v>
+      <c r="C8" s="7">
+        <v>303</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -32149,16 +32130,16 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27">
-        <v>17</v>
+      <c r="C9" s="9">
+        <v>16</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -32181,11 +32162,11 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A10" s="39"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="10">
         <v>302</v>
       </c>
       <c r="D10" s="5"/>
@@ -32213,13 +32194,13 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>0</v>
       </c>
       <c r="D11" s="5"/>
@@ -32247,11 +32228,11 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>0</v>
       </c>
       <c r="D12" s="5"/>
@@ -32279,11 +32260,11 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>0</v>
       </c>
       <c r="D13" s="5"/>
@@ -32311,12 +32292,12 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A14" s="39"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28">
-        <v>302</v>
+      <c r="C14" s="10">
+        <v>303</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -32343,12 +32324,12 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="28">
-        <v>302</v>
+      <c r="B15" s="31"/>
+      <c r="C15" s="10">
+        <v>303</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -32375,9 +32356,9 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -32403,25 +32384,25 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="5"/>
@@ -32444,27 +32425,27 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="33">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:26" ht="33.6">
+      <c r="A18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <v>1</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <f>(28/32)</f>
         <v>0.875</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>0</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>1</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="5"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -32485,27 +32466,27 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="33">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:26" ht="33.6">
+      <c r="A19" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>1</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <f>(42/43)</f>
         <v>0.97674418604651159</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="5"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -32526,27 +32507,27 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="33">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:26" ht="33.6">
+      <c r="A20" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <v>1</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <f>(31/33)</f>
         <v>0.93939393939393945</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>0</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="5"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -32567,27 +32548,27 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="33">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:26" ht="33.6">
+      <c r="A21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <v>1</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="16">
         <f>(46/49)</f>
         <v>0.93877551020408168</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>0</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="5"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -32608,26 +32589,26 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="33">
-      <c r="A22" s="29" t="s">
+    <row r="22" spans="1:26" ht="33.6">
+      <c r="A22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="16">
         <v>1</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>0</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="11">
         <v>2</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="5"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -32648,27 +32629,27 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="33">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:26" ht="33.6">
+      <c r="A23" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="16">
         <v>1</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="16">
         <f>(28/30)</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>0</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>2</v>
       </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="5"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -32689,27 +32670,27 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="16.5">
-      <c r="A24" s="29" t="s">
+    <row r="24" spans="1:26" ht="16.8">
+      <c r="A24" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <v>1</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="16">
         <f>(25/28)</f>
         <v>0.8928571428571429</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>0</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>2</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="5"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -32730,27 +32711,27 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="33">
-      <c r="A25" s="29" t="s">
+    <row r="25" spans="1:26" ht="33.6">
+      <c r="A25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="16">
         <v>1</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="16">
         <f>(43/44)</f>
         <v>0.97727272727272729</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>0</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>2</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="5"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -32771,27 +32752,27 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="33">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:26" ht="33.6">
+      <c r="A26" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="16">
         <v>1</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="16">
         <f>(31/31)</f>
         <v>1</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>0</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>2</v>
       </c>
-      <c r="G26" s="12"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="5"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -32813,13 +32794,13 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -32841,19 +32822,19 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="5"/>
@@ -32879,11 +32860,11 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="5"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -32907,17 +32888,17 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>0</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="5"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -32941,17 +32922,17 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A31" s="38"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="12">
         <v>9</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="11">
         <v>2</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="11">
         <v>2</v>
       </c>
       <c r="F31" s="5"/>
@@ -32977,17 +32958,17 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="12">
         <v>9</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="11">
         <v>2</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="11">
         <v>2</v>
       </c>
       <c r="F32" s="5"/>
@@ -33013,11 +32994,11 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -33069,7 +33050,7 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="2"/>
